--- a/Code/Results/Cases/Case_0_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.568639279837455</v>
+        <v>4.026394718256862</v>
       </c>
       <c r="D2">
-        <v>7.057383505178139</v>
+        <v>9.960504504094272</v>
       </c>
       <c r="E2">
-        <v>8.556602606802185</v>
+        <v>13.87345592677048</v>
       </c>
       <c r="F2">
-        <v>17.6098413434678</v>
+        <v>28.5022060582568</v>
       </c>
       <c r="G2">
-        <v>17.35650017780531</v>
+        <v>27.0497316649349</v>
       </c>
       <c r="H2">
-        <v>7.77276066478842</v>
+        <v>13.99239377049987</v>
       </c>
       <c r="I2">
-        <v>11.81816213310478</v>
+        <v>19.62191857968765</v>
       </c>
       <c r="J2">
-        <v>5.499295328613115</v>
+        <v>9.905874282657706</v>
       </c>
       <c r="K2">
-        <v>21.12259732046125</v>
+        <v>13.85906985517805</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.34047445891622</v>
+        <v>16.63564333578771</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.06705575531229</v>
+        <v>21.04636493116709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.250668849779339</v>
+        <v>3.87836050223641</v>
       </c>
       <c r="D3">
-        <v>6.837530077917446</v>
+        <v>9.938361622787882</v>
       </c>
       <c r="E3">
-        <v>8.485686795806611</v>
+        <v>13.90408817442267</v>
       </c>
       <c r="F3">
-        <v>17.57971987717426</v>
+        <v>28.6382390188574</v>
       </c>
       <c r="G3">
-        <v>17.32496825238199</v>
+        <v>27.23842511706677</v>
       </c>
       <c r="H3">
-        <v>7.901585943955017</v>
+        <v>14.06051134251524</v>
       </c>
       <c r="I3">
-        <v>11.84984241680449</v>
+        <v>19.72102959989156</v>
       </c>
       <c r="J3">
-        <v>5.571863063232748</v>
+        <v>9.940445628200685</v>
       </c>
       <c r="K3">
-        <v>19.82175730974588</v>
+        <v>13.23564009844841</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.39783341325717</v>
+        <v>16.37230878384486</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.22990378027642</v>
+        <v>21.1712078546357</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.045134418670741</v>
+        <v>3.783749376752831</v>
       </c>
       <c r="D4">
-        <v>6.701655009912661</v>
+        <v>9.926154998038996</v>
       </c>
       <c r="E4">
-        <v>8.447691869143599</v>
+        <v>13.92541263193496</v>
       </c>
       <c r="F4">
-        <v>17.58480256515641</v>
+        <v>28.72988042724842</v>
       </c>
       <c r="G4">
-        <v>17.34372079423722</v>
+        <v>27.36538168959237</v>
       </c>
       <c r="H4">
-        <v>7.986979140086858</v>
+        <v>14.10498103141494</v>
       </c>
       <c r="I4">
-        <v>11.88489056636841</v>
+        <v>19.7872221408544</v>
       </c>
       <c r="J4">
-        <v>5.618969487693958</v>
+        <v>9.962947605459032</v>
       </c>
       <c r="K4">
-        <v>18.97815966279911</v>
+        <v>12.83673264260108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.79081489778364</v>
+        <v>16.20949270048343</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.34572841731767</v>
+        <v>21.25333432047183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.958813860585808</v>
+        <v>3.744294724026761</v>
       </c>
       <c r="D5">
-        <v>6.646140792735855</v>
+        <v>9.921533513642657</v>
       </c>
       <c r="E5">
-        <v>8.433584009732256</v>
+        <v>13.93473480297431</v>
       </c>
       <c r="F5">
-        <v>17.5925562367806</v>
+        <v>28.76925900776051</v>
       </c>
       <c r="G5">
-        <v>17.36044537022368</v>
+        <v>27.41989000523393</v>
       </c>
       <c r="H5">
-        <v>8.023297718964589</v>
+        <v>14.12376817848645</v>
       </c>
       <c r="I5">
-        <v>11.90291186234606</v>
+        <v>19.81553453707211</v>
       </c>
       <c r="J5">
-        <v>5.638795451218067</v>
+        <v>9.972438480304193</v>
       </c>
       <c r="K5">
-        <v>18.62315507254277</v>
+        <v>12.67029968312607</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.53649981622864</v>
+        <v>16.14292980457407</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39668700062539</v>
+        <v>21.28817512560725</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.944326489975516</v>
+        <v>3.737690065260456</v>
       </c>
       <c r="D6">
-        <v>6.636916388157978</v>
+        <v>9.920787525828</v>
       </c>
       <c r="E6">
-        <v>8.43132384768367</v>
+        <v>13.93632091677255</v>
       </c>
       <c r="F6">
-        <v>17.59417953830704</v>
+        <v>28.77592042989533</v>
       </c>
       <c r="G6">
-        <v>17.36375582507273</v>
+        <v>27.42910798770389</v>
       </c>
       <c r="H6">
-        <v>8.029418479405262</v>
+        <v>14.12692796484539</v>
       </c>
       <c r="I6">
-        <v>11.90612472802525</v>
+        <v>19.82031651115187</v>
       </c>
       <c r="J6">
-        <v>5.642125258397344</v>
+        <v>9.974033844078269</v>
       </c>
       <c r="K6">
-        <v>18.56353051928037</v>
+        <v>12.64243532533211</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.49385633472948</v>
+        <v>16.13186621502252</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.40536938988476</v>
+        <v>21.2940433059397</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.043980608822076</v>
+        <v>3.783220871678119</v>
       </c>
       <c r="D7">
-        <v>6.700906801679758</v>
+        <v>9.926091238124251</v>
       </c>
       <c r="E7">
-        <v>8.447496064867458</v>
+        <v>13.92553579452218</v>
       </c>
       <c r="F7">
-        <v>17.58488445877033</v>
+        <v>28.7304032744963</v>
       </c>
       <c r="G7">
-        <v>17.34391025632383</v>
+        <v>27.36610560623233</v>
       </c>
       <c r="H7">
-        <v>7.987462868752411</v>
+        <v>14.10523170700979</v>
       </c>
       <c r="I7">
-        <v>11.88511871206753</v>
+        <v>19.78759855775333</v>
       </c>
       <c r="J7">
-        <v>5.619234332116775</v>
+        <v>9.963074301754119</v>
       </c>
       <c r="K7">
-        <v>18.97341733507392</v>
+        <v>12.8345035035107</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78741303142961</v>
+        <v>16.20859578383073</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.34640072781913</v>
+        <v>21.25379863732135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.461154006213365</v>
+        <v>3.976143763674748</v>
       </c>
       <c r="D8">
-        <v>6.981806889851232</v>
+        <v>9.952583477685787</v>
       </c>
       <c r="E8">
-        <v>8.530988522179845</v>
+        <v>13.88349547176233</v>
       </c>
       <c r="F8">
-        <v>17.59441731864106</v>
+        <v>28.54742142858409</v>
       </c>
       <c r="G8">
-        <v>17.33742682693472</v>
+        <v>27.11247883856782</v>
       </c>
       <c r="H8">
-        <v>7.815834007118699</v>
+        <v>14.01533182559487</v>
       </c>
       <c r="I8">
-        <v>11.82573912705197</v>
+        <v>19.65498183983946</v>
       </c>
       <c r="J8">
-        <v>5.52378032789419</v>
+        <v>9.917530162461881</v>
       </c>
       <c r="K8">
-        <v>20.68340590121907</v>
+        <v>13.6475556530895</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.02138998292801</v>
+        <v>16.54512092644807</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.11978146834592</v>
+        <v>21.08827347102956</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.196737212034941</v>
+        <v>4.323640392585195</v>
       </c>
       <c r="D9">
-        <v>7.522482977024919</v>
+        <v>10.01539420734227</v>
       </c>
       <c r="E9">
-        <v>8.739469089780624</v>
+        <v>13.82103536697227</v>
       </c>
       <c r="F9">
-        <v>17.81051515987598</v>
+        <v>28.25330548266389</v>
       </c>
       <c r="G9">
-        <v>17.64735239845028</v>
+        <v>26.7039861489207</v>
       </c>
       <c r="H9">
-        <v>7.532311708364674</v>
+        <v>13.86001675586226</v>
       </c>
       <c r="I9">
-        <v>11.84104587357866</v>
+        <v>19.4374474492059</v>
       </c>
       <c r="J9">
-        <v>5.357396412832635</v>
+        <v>9.838311357682443</v>
       </c>
       <c r="K9">
-        <v>23.67948812505521</v>
+        <v>15.10749607952762</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.32887676466835</v>
+        <v>17.19311817301924</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.81158875337939</v>
+        <v>20.80721227081638</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.686286478857332</v>
+        <v>4.558641431125698</v>
       </c>
       <c r="D10">
-        <v>7.909742499879066</v>
+        <v>10.06792899429836</v>
       </c>
       <c r="E10">
-        <v>8.920738280693651</v>
+        <v>13.78734565809013</v>
       </c>
       <c r="F10">
-        <v>18.10253251956266</v>
+        <v>28.07708297151467</v>
       </c>
       <c r="G10">
-        <v>18.09536655279667</v>
+        <v>26.45914580997697</v>
       </c>
       <c r="H10">
-        <v>7.361103426269633</v>
+        <v>13.75868120192179</v>
       </c>
       <c r="I10">
-        <v>11.94311664657005</v>
+        <v>19.30378388430997</v>
       </c>
       <c r="J10">
-        <v>5.248727147991149</v>
+        <v>9.786229218723969</v>
       </c>
       <c r="K10">
-        <v>25.66281263122863</v>
+        <v>16.0909322838979</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.90766779021661</v>
+        <v>17.65806886997544</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.68343325350765</v>
+        <v>20.62741115557801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.897920061557356</v>
+        <v>4.660887784320527</v>
       </c>
       <c r="D11">
-        <v>8.083084110907317</v>
+        <v>10.09316104925264</v>
       </c>
       <c r="E11">
-        <v>9.00942689602843</v>
+        <v>13.77467067168753</v>
       </c>
       <c r="F11">
-        <v>18.26667920812277</v>
+        <v>28.00565707934643</v>
       </c>
       <c r="G11">
-        <v>18.35076280227511</v>
+        <v>26.35999883489184</v>
       </c>
       <c r="H11">
-        <v>7.292460247283178</v>
+        <v>13.71535240102514</v>
       </c>
       <c r="I11">
-        <v>12.01135305109683</v>
+        <v>19.24870661282336</v>
       </c>
       <c r="J11">
-        <v>5.202467751806474</v>
+        <v>9.763857676511922</v>
       </c>
       <c r="K11">
-        <v>26.51803461062886</v>
+        <v>16.51781431951597</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.58798264419744</v>
+        <v>17.86639576976022</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.64992712568451</v>
+        <v>20.55144650603362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.976471319679263</v>
+        <v>4.698918865248034</v>
       </c>
       <c r="D12">
-        <v>8.148271125051854</v>
+        <v>10.10290256568552</v>
       </c>
       <c r="E12">
-        <v>9.043913326803438</v>
+        <v>13.77025215224811</v>
       </c>
       <c r="F12">
-        <v>18.3335036173493</v>
+        <v>27.9798734522086</v>
       </c>
       <c r="G12">
-        <v>18.45510626942425</v>
+        <v>26.32423250848062</v>
       </c>
       <c r="H12">
-        <v>7.267906242984651</v>
+        <v>13.69934308323065</v>
       </c>
       <c r="I12">
-        <v>12.04048356486251</v>
+        <v>19.22867791239708</v>
       </c>
       <c r="J12">
-        <v>5.185429204528592</v>
+        <v>9.755575604406515</v>
       </c>
       <c r="K12">
-        <v>26.83516065718287</v>
+        <v>16.67644242093916</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.84019890292681</v>
+        <v>17.9447650805198</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.64109666644076</v>
+        <v>20.52352187432347</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.959624552847064</v>
+        <v>4.690759019255138</v>
       </c>
       <c r="D13">
-        <v>8.134252799575266</v>
+        <v>10.10079633648356</v>
       </c>
       <c r="E13">
-        <v>9.036445856282631</v>
+        <v>13.7711868045632</v>
       </c>
       <c r="F13">
-        <v>18.31890190522243</v>
+        <v>27.98537009679412</v>
       </c>
       <c r="G13">
-        <v>18.43229202621372</v>
+        <v>26.33185602031817</v>
       </c>
       <c r="H13">
-        <v>7.273128486924565</v>
+        <v>13.7027732564908</v>
       </c>
       <c r="I13">
-        <v>12.03406108406212</v>
+        <v>19.23295456324655</v>
       </c>
       <c r="J13">
-        <v>5.189077079048529</v>
+        <v>9.757350872932623</v>
       </c>
       <c r="K13">
-        <v>26.76716052746429</v>
+        <v>16.64241454580305</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.78611922989492</v>
+        <v>17.9279109122277</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.64282222119513</v>
+        <v>20.52949845930735</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.904414363867381</v>
+        <v>4.664030493280618</v>
       </c>
       <c r="D14">
-        <v>8.088456427114616</v>
+        <v>10.09395877821577</v>
       </c>
       <c r="E14">
-        <v>9.01224600757757</v>
+        <v>13.7742995171607</v>
       </c>
       <c r="F14">
-        <v>18.27208252610768</v>
+        <v>28.00351047565147</v>
       </c>
       <c r="G14">
-        <v>18.35919330722175</v>
+        <v>26.35702056338542</v>
       </c>
       <c r="H14">
-        <v>7.290410651277915</v>
+        <v>13.71402732016667</v>
       </c>
       <c r="I14">
-        <v>12.0136828362618</v>
+        <v>19.24704222322836</v>
       </c>
       <c r="J14">
-        <v>5.201056245692694</v>
+        <v>9.763172508914824</v>
       </c>
       <c r="K14">
-        <v>26.54425939006759</v>
+        <v>16.53092572414673</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.60884067011028</v>
+        <v>17.8728540181248</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.6491216447558</v>
+        <v>20.54913224383809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.870389584576718</v>
+        <v>4.647568497090651</v>
       </c>
       <c r="D15">
-        <v>8.060344445295986</v>
+        <v>10.08979473313045</v>
       </c>
       <c r="E15">
-        <v>8.997540527363485</v>
+        <v>13.77625579011336</v>
       </c>
       <c r="F15">
-        <v>18.24401639365821</v>
+        <v>28.01478677713757</v>
       </c>
       <c r="G15">
-        <v>18.31541705319076</v>
+        <v>26.37266675835776</v>
       </c>
       <c r="H15">
-        <v>7.301187422612933</v>
+        <v>13.72097264204662</v>
       </c>
       <c r="I15">
-        <v>12.00163353988796</v>
+        <v>19.25577926235618</v>
       </c>
       <c r="J15">
-        <v>5.208456902281215</v>
+        <v>9.766763101880247</v>
       </c>
       <c r="K15">
-        <v>26.40685090290803</v>
+        <v>16.46223988514427</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.49955001757853</v>
+        <v>17.83906062566082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.65349131033678</v>
+        <v>20.56126820160241</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.672233113975244</v>
+        <v>4.551864108206641</v>
       </c>
       <c r="D16">
-        <v>7.898353166152258</v>
+        <v>10.06630642678235</v>
       </c>
       <c r="E16">
-        <v>8.915068180993439</v>
+        <v>13.78822734371076</v>
       </c>
       <c r="F16">
-        <v>18.09244961414402</v>
+        <v>28.08192728519702</v>
       </c>
       <c r="G16">
-        <v>18.07973362699684</v>
+        <v>26.4658731134457</v>
       </c>
       <c r="H16">
-        <v>7.365784620951102</v>
+        <v>13.76156857687893</v>
       </c>
       <c r="I16">
-        <v>11.93910956186355</v>
+        <v>19.30749892640901</v>
       </c>
       <c r="J16">
-        <v>5.251816047068088</v>
+        <v>9.787717797083673</v>
       </c>
       <c r="K16">
-        <v>25.60597848678181</v>
+        <v>16.06261540300494</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.8624488932168</v>
+        <v>17.6443848253616</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.68614678669824</v>
+        <v>20.63249319156843</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.547836480729222</v>
+        <v>4.491946386076321</v>
       </c>
       <c r="D17">
-        <v>7.798217391173798</v>
+        <v>10.05223514783111</v>
       </c>
       <c r="E17">
-        <v>8.866074344092251</v>
+        <v>13.79625047392812</v>
       </c>
       <c r="F17">
-        <v>18.00761011425372</v>
+        <v>28.12535916854366</v>
       </c>
       <c r="G17">
-        <v>17.94853588147661</v>
+        <v>26.52619909484341</v>
       </c>
       <c r="H17">
-        <v>7.407855467448769</v>
+        <v>13.78718223105373</v>
       </c>
       <c r="I17">
-        <v>11.9064521390882</v>
+        <v>19.34069717697909</v>
       </c>
       <c r="J17">
-        <v>5.279243742780952</v>
+        <v>9.800910848787396</v>
       </c>
       <c r="K17">
-        <v>25.10264977297915</v>
+        <v>15.81215233809672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.46193426830905</v>
+        <v>17.52409759454874</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.71273694310738</v>
+        <v>20.67768251692899</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.475245052951134</v>
+        <v>4.457045863574198</v>
       </c>
       <c r="D18">
-        <v>7.740358486188831</v>
+        <v>10.0442675755671</v>
       </c>
       <c r="E18">
-        <v>8.838480367965289</v>
+        <v>13.80111465883382</v>
       </c>
       <c r="F18">
-        <v>17.96175097898966</v>
+        <v>28.15116213931396</v>
       </c>
       <c r="G18">
-        <v>17.87792229955701</v>
+        <v>26.56204719536378</v>
       </c>
       <c r="H18">
-        <v>7.432916026470872</v>
+        <v>13.80217517169607</v>
       </c>
       <c r="I18">
-        <v>11.8897121706611</v>
+        <v>19.36033072407576</v>
       </c>
       <c r="J18">
-        <v>5.295316772185414</v>
+        <v>9.808623494053684</v>
       </c>
       <c r="K18">
-        <v>24.80872183713447</v>
+        <v>15.66616783689462</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.22800000602746</v>
+        <v>17.4546156369954</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.73034669017661</v>
+        <v>20.70422254488533</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.450487929387469</v>
+        <v>4.445154600256931</v>
       </c>
       <c r="D19">
-        <v>7.720724762216996</v>
+        <v>10.04159166013646</v>
       </c>
       <c r="E19">
-        <v>8.829237944487254</v>
+        <v>13.80280443515863</v>
       </c>
       <c r="F19">
-        <v>17.9467231711041</v>
+        <v>28.16003955566267</v>
       </c>
       <c r="G19">
-        <v>17.85483880959325</v>
+        <v>26.57438169421567</v>
       </c>
       <c r="H19">
-        <v>7.441546017248833</v>
+        <v>13.8072962858707</v>
       </c>
       <c r="I19">
-        <v>11.88439037600264</v>
+        <v>19.36707071078524</v>
       </c>
       <c r="J19">
-        <v>5.300809252345267</v>
+        <v>9.811256232846922</v>
       </c>
       <c r="K19">
-        <v>24.70844183262222</v>
+        <v>15.61641197126783</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.14817967875047</v>
+        <v>17.43104135324318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.73669792276965</v>
+        <v>20.71330261199378</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.561186534844486</v>
+        <v>4.498370139354642</v>
       </c>
       <c r="D20">
-        <v>7.808904647137606</v>
+        <v>10.05372007022967</v>
       </c>
       <c r="E20">
-        <v>8.871229123600191</v>
+        <v>13.79537057566758</v>
       </c>
       <c r="F20">
-        <v>18.01633606490089</v>
+        <v>28.1206506333021</v>
       </c>
       <c r="G20">
-        <v>17.96199861641836</v>
+        <v>26.51965810845949</v>
       </c>
       <c r="H20">
-        <v>7.403286913594142</v>
+        <v>13.7844286372007</v>
       </c>
       <c r="I20">
-        <v>11.90971589460451</v>
+        <v>19.33710737205559</v>
       </c>
       <c r="J20">
-        <v>5.276293089803908</v>
+        <v>9.799493558963098</v>
       </c>
       <c r="K20">
-        <v>25.15668791258086</v>
+        <v>15.83901436343578</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.50493879402323</v>
+        <v>17.53693346141497</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.70966458922832</v>
+        <v>20.67281526157072</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.92067405502098</v>
+        <v>4.671900093810169</v>
       </c>
       <c r="D21">
-        <v>8.101920590788749</v>
+        <v>10.09596210997595</v>
       </c>
       <c r="E21">
-        <v>9.019329567384929</v>
+        <v>13.77337489174153</v>
       </c>
       <c r="F21">
-        <v>18.28570669224237</v>
+        <v>27.99814785080874</v>
       </c>
       <c r="G21">
-        <v>18.38045573690482</v>
+        <v>26.34958070532662</v>
       </c>
       <c r="H21">
-        <v>7.285294455917993</v>
+        <v>13.71071091620277</v>
       </c>
       <c r="I21">
-        <v>12.01957793171155</v>
+        <v>19.24288183360519</v>
       </c>
       <c r="J21">
-        <v>5.197524486616429</v>
+        <v>9.761457412204972</v>
       </c>
       <c r="K21">
-        <v>26.60991316042133</v>
+        <v>16.56375527927373</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.66105797905188</v>
+        <v>17.88904014354777</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.64716431736873</v>
+        <v>20.54334245809065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.146356169536973</v>
+        <v>4.781298796410926</v>
       </c>
       <c r="D22">
-        <v>8.290761579334186</v>
+        <v>10.12465535158808</v>
       </c>
       <c r="E22">
-        <v>9.121381146225552</v>
+        <v>13.7612214545339</v>
       </c>
       <c r="F22">
-        <v>18.48901134629566</v>
+        <v>27.9254548420887</v>
       </c>
       <c r="G22">
-        <v>18.69846849451865</v>
+        <v>26.24880050591438</v>
       </c>
       <c r="H22">
-        <v>7.21662956498642</v>
+        <v>13.66485415498778</v>
       </c>
       <c r="I22">
-        <v>12.110623792058</v>
+        <v>19.18612741544345</v>
       </c>
       <c r="J22">
-        <v>5.148848177910985</v>
+        <v>9.73770323085393</v>
       </c>
       <c r="K22">
-        <v>27.52048474691643</v>
+        <v>17.01976914907187</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.38517218380457</v>
+        <v>18.11610708860263</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.62893793817372</v>
+        <v>20.46363127756784</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.026751787110435</v>
+        <v>4.723283073529048</v>
       </c>
       <c r="D23">
-        <v>8.190231146313636</v>
+        <v>10.10924363394707</v>
       </c>
       <c r="E23">
-        <v>9.066431340827164</v>
+        <v>13.76750466404989</v>
       </c>
       <c r="F23">
-        <v>18.37796148825479</v>
+        <v>27.96357581715536</v>
       </c>
       <c r="G23">
-        <v>18.52461244179803</v>
+        <v>26.30163308183127</v>
       </c>
       <c r="H23">
-        <v>7.252464943491501</v>
+        <v>13.68911624901443</v>
       </c>
       <c r="I23">
-        <v>12.06022195728174</v>
+        <v>19.2159751874482</v>
       </c>
       <c r="J23">
-        <v>5.17456305981634</v>
+        <v>9.75028033806444</v>
       </c>
       <c r="K23">
-        <v>27.03806938548919</v>
+        <v>16.77802261658014</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.0015633407595</v>
+        <v>17.99521647618406</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.63649892968162</v>
+        <v>20.50572448411368</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.555154321170291</v>
+        <v>4.495467370212287</v>
       </c>
       <c r="D24">
-        <v>7.804073836808587</v>
+        <v>10.05304835581891</v>
       </c>
       <c r="E24">
-        <v>8.868896862785304</v>
+        <v>13.79576759403113</v>
       </c>
       <c r="F24">
-        <v>18.01238199190344</v>
+        <v>28.12277676663383</v>
       </c>
       <c r="G24">
-        <v>17.95589713704206</v>
+        <v>26.5226116582064</v>
       </c>
       <c r="H24">
-        <v>7.405349644407559</v>
+        <v>13.78567270432811</v>
       </c>
       <c r="I24">
-        <v>11.90823402342721</v>
+        <v>19.33872861797373</v>
       </c>
       <c r="J24">
-        <v>5.277626133280954</v>
+        <v>9.800133917620984</v>
       </c>
       <c r="K24">
-        <v>25.13227146766879</v>
+        <v>15.82687623408976</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.48550789198973</v>
+        <v>17.53113138049264</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.71104638784511</v>
+        <v>20.67501400334383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.006655234138069</v>
+        <v>4.233103060062366</v>
       </c>
       <c r="D25">
-        <v>7.377718949998164</v>
+        <v>9.997262680743086</v>
       </c>
       <c r="E25">
-        <v>8.678183806129818</v>
+        <v>13.8357910805628</v>
       </c>
       <c r="F25">
-        <v>17.72952122217958</v>
+        <v>28.32590049560651</v>
       </c>
       <c r="G25">
-        <v>17.52630690508505</v>
+        <v>26.8048660101242</v>
       </c>
       <c r="H25">
-        <v>7.60287093819241</v>
+        <v>13.89978934824318</v>
       </c>
       <c r="I25">
-        <v>11.82168951207737</v>
+        <v>19.49171927509168</v>
       </c>
       <c r="J25">
-        <v>5.400095094448789</v>
+        <v>9.858665067304919</v>
       </c>
       <c r="K25">
-        <v>22.90728345210096</v>
+        <v>14.72776050922688</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.71361573650843</v>
+        <v>17.01950163286428</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.8788476830625</v>
+        <v>20.8785704997411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_76/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_76/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.026394718256862</v>
+        <v>5.568639279837534</v>
       </c>
       <c r="D2">
-        <v>9.960504504094272</v>
+        <v>7.057383505178076</v>
       </c>
       <c r="E2">
-        <v>13.87345592677048</v>
+        <v>8.556602606802146</v>
       </c>
       <c r="F2">
-        <v>28.5022060582568</v>
+        <v>17.6098413434678</v>
       </c>
       <c r="G2">
-        <v>27.0497316649349</v>
+        <v>17.35650017780537</v>
       </c>
       <c r="H2">
-        <v>13.99239377049987</v>
+        <v>7.77276066478842</v>
       </c>
       <c r="I2">
-        <v>19.62191857968765</v>
+        <v>11.8181621331048</v>
       </c>
       <c r="J2">
-        <v>9.905874282657706</v>
+        <v>5.499295328613051</v>
       </c>
       <c r="K2">
-        <v>13.85906985517805</v>
+        <v>21.12259732046125</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.63564333578771</v>
+        <v>16.34047445891621</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.04636493116709</v>
+        <v>12.06705575531234</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.87836050223641</v>
+        <v>5.250668849779179</v>
       </c>
       <c r="D3">
-        <v>9.938361622787882</v>
+        <v>6.837530077917443</v>
       </c>
       <c r="E3">
-        <v>13.90408817442267</v>
+        <v>8.485686795806673</v>
       </c>
       <c r="F3">
-        <v>28.6382390188574</v>
+        <v>17.57971987717417</v>
       </c>
       <c r="G3">
-        <v>27.23842511706677</v>
+        <v>17.32496825238199</v>
       </c>
       <c r="H3">
-        <v>14.06051134251524</v>
+        <v>7.901585943954961</v>
       </c>
       <c r="I3">
-        <v>19.72102959989156</v>
+        <v>11.84984241680449</v>
       </c>
       <c r="J3">
-        <v>9.940445628200685</v>
+        <v>5.571863063232812</v>
       </c>
       <c r="K3">
-        <v>13.23564009844841</v>
+        <v>19.82175730974594</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.37230878384486</v>
+        <v>15.39783341325717</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.1712078546357</v>
+        <v>12.22990378027634</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.783749376752831</v>
+        <v>5.045134418670756</v>
       </c>
       <c r="D4">
-        <v>9.926154998038996</v>
+        <v>6.701655009912614</v>
       </c>
       <c r="E4">
-        <v>13.92541263193496</v>
+        <v>8.447691869143545</v>
       </c>
       <c r="F4">
-        <v>28.72988042724842</v>
+        <v>17.5848025651561</v>
       </c>
       <c r="G4">
-        <v>27.36538168959237</v>
+        <v>17.34372079423675</v>
       </c>
       <c r="H4">
-        <v>14.10498103141494</v>
+        <v>7.986979140086733</v>
       </c>
       <c r="I4">
-        <v>19.7872221408544</v>
+        <v>11.8848905663682</v>
       </c>
       <c r="J4">
-        <v>9.962947605459032</v>
+        <v>5.618969487693954</v>
       </c>
       <c r="K4">
-        <v>12.83673264260108</v>
+        <v>18.97815966279918</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.20949270048343</v>
+        <v>14.79081489778362</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.25333432047183</v>
+        <v>12.34572841731744</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.744294724026761</v>
+        <v>4.958813860585755</v>
       </c>
       <c r="D5">
-        <v>9.921533513642657</v>
+        <v>6.646140792735816</v>
       </c>
       <c r="E5">
-        <v>13.93473480297431</v>
+        <v>8.433584009732147</v>
       </c>
       <c r="F5">
-        <v>28.76925900776051</v>
+        <v>17.59255623678059</v>
       </c>
       <c r="G5">
-        <v>27.41989000523393</v>
+        <v>17.36044537022376</v>
       </c>
       <c r="H5">
-        <v>14.12376817848645</v>
+        <v>8.023297718964592</v>
       </c>
       <c r="I5">
-        <v>19.81553453707211</v>
+        <v>11.90291186234609</v>
       </c>
       <c r="J5">
-        <v>9.972438480304193</v>
+        <v>5.638795451218034</v>
       </c>
       <c r="K5">
-        <v>12.67029968312607</v>
+        <v>18.62315507254272</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.14292980457407</v>
+        <v>14.53649981622862</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.28817512560725</v>
+        <v>12.39668700062542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.737690065260456</v>
+        <v>4.944326489975613</v>
       </c>
       <c r="D6">
-        <v>9.920787525828</v>
+        <v>6.636916388158076</v>
       </c>
       <c r="E6">
-        <v>13.93632091677255</v>
+        <v>8.43132384768378</v>
       </c>
       <c r="F6">
-        <v>28.77592042989533</v>
+        <v>17.59417953830707</v>
       </c>
       <c r="G6">
-        <v>27.42910798770389</v>
+        <v>17.36375582507277</v>
       </c>
       <c r="H6">
-        <v>14.12692796484539</v>
+        <v>8.029418479405205</v>
       </c>
       <c r="I6">
-        <v>19.82031651115187</v>
+        <v>11.90612472802519</v>
       </c>
       <c r="J6">
-        <v>9.974033844078269</v>
+        <v>5.642125258397407</v>
       </c>
       <c r="K6">
-        <v>12.64243532533211</v>
+        <v>18.56353051928041</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.13186621502252</v>
+        <v>14.49385633472948</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.2940433059397</v>
+        <v>12.40536938988472</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.783220871678119</v>
+        <v>5.043980608822075</v>
       </c>
       <c r="D7">
-        <v>9.926091238124251</v>
+        <v>6.700906801679809</v>
       </c>
       <c r="E7">
-        <v>13.92553579452218</v>
+        <v>8.447496064867506</v>
       </c>
       <c r="F7">
-        <v>28.7304032744963</v>
+        <v>17.58488445877027</v>
       </c>
       <c r="G7">
-        <v>27.36610560623233</v>
+        <v>17.34391025632381</v>
       </c>
       <c r="H7">
-        <v>14.10523170700979</v>
+        <v>7.987462868752349</v>
       </c>
       <c r="I7">
-        <v>19.78759855775333</v>
+        <v>11.88511871206749</v>
       </c>
       <c r="J7">
-        <v>9.963074301754119</v>
+        <v>5.619234332116772</v>
       </c>
       <c r="K7">
-        <v>12.8345035035107</v>
+        <v>18.97341733507393</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.20859578383073</v>
+        <v>14.78741303142959</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.25379863732135</v>
+        <v>12.3464007278191</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.976143763674748</v>
+        <v>5.461154006213429</v>
       </c>
       <c r="D8">
-        <v>9.952583477685787</v>
+        <v>6.981806889851136</v>
       </c>
       <c r="E8">
-        <v>13.88349547176233</v>
+        <v>8.530988522179843</v>
       </c>
       <c r="F8">
-        <v>28.54742142858409</v>
+        <v>17.59441731864096</v>
       </c>
       <c r="G8">
-        <v>27.11247883856782</v>
+        <v>17.33742682693478</v>
       </c>
       <c r="H8">
-        <v>14.01533182559487</v>
+        <v>7.815834007118645</v>
       </c>
       <c r="I8">
-        <v>19.65498183983946</v>
+        <v>11.8257391270519</v>
       </c>
       <c r="J8">
-        <v>9.917530162461881</v>
+        <v>5.523780327894219</v>
       </c>
       <c r="K8">
-        <v>13.6475556530895</v>
+        <v>20.68340590121903</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.54512092644807</v>
+        <v>16.02138998292801</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.08827347102956</v>
+        <v>12.11978146834587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.323640392585195</v>
+        <v>6.196737212035105</v>
       </c>
       <c r="D9">
-        <v>10.01539420734227</v>
+        <v>7.522482977024876</v>
       </c>
       <c r="E9">
-        <v>13.82103536697227</v>
+        <v>8.739469089780684</v>
       </c>
       <c r="F9">
-        <v>28.25330548266389</v>
+        <v>17.81051515987585</v>
       </c>
       <c r="G9">
-        <v>26.7039861489207</v>
+        <v>17.64735239845031</v>
       </c>
       <c r="H9">
-        <v>13.86001675586226</v>
+        <v>7.532311708364571</v>
       </c>
       <c r="I9">
-        <v>19.4374474492059</v>
+        <v>11.84104587357856</v>
       </c>
       <c r="J9">
-        <v>9.838311357682443</v>
+        <v>5.3573964128327</v>
       </c>
       <c r="K9">
-        <v>15.10749607952762</v>
+        <v>23.67948812505522</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.19311817301924</v>
+        <v>18.32887676466837</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.80721227081638</v>
+        <v>11.81158875337928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.558641431125698</v>
+        <v>6.686286478857332</v>
       </c>
       <c r="D10">
-        <v>10.06792899429836</v>
+        <v>7.909742499879056</v>
       </c>
       <c r="E10">
-        <v>13.78734565809013</v>
+        <v>8.920738280693524</v>
       </c>
       <c r="F10">
-        <v>28.07708297151467</v>
+        <v>18.10253251956256</v>
       </c>
       <c r="G10">
-        <v>26.45914580997697</v>
+        <v>18.09536655279656</v>
       </c>
       <c r="H10">
-        <v>13.75868120192179</v>
+        <v>7.361103426269529</v>
       </c>
       <c r="I10">
-        <v>19.30378388430997</v>
+        <v>11.94311664656998</v>
       </c>
       <c r="J10">
-        <v>9.786229218723969</v>
+        <v>5.248727147991067</v>
       </c>
       <c r="K10">
-        <v>16.0909322838979</v>
+        <v>25.66281263122868</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.65806886997544</v>
+        <v>19.90766779021667</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.62741115557801</v>
+        <v>11.68343325350754</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.660887784320527</v>
+        <v>6.89792006155741</v>
       </c>
       <c r="D11">
-        <v>10.09316104925264</v>
+        <v>8.083084110907288</v>
       </c>
       <c r="E11">
-        <v>13.77467067168753</v>
+        <v>9.009426896028437</v>
       </c>
       <c r="F11">
-        <v>28.00565707934643</v>
+        <v>18.26667920812271</v>
       </c>
       <c r="G11">
-        <v>26.35999883489184</v>
+        <v>18.35076280227512</v>
       </c>
       <c r="H11">
-        <v>13.71535240102514</v>
+        <v>7.292460247283132</v>
       </c>
       <c r="I11">
-        <v>19.24870661282336</v>
+        <v>12.01135305109677</v>
       </c>
       <c r="J11">
-        <v>9.763857676511922</v>
+        <v>5.202467751806508</v>
       </c>
       <c r="K11">
-        <v>16.51781431951597</v>
+        <v>26.51803461062885</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.86639576976022</v>
+        <v>20.58798264419744</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.55144650603362</v>
+        <v>11.64992712568449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.698918865248034</v>
+        <v>6.976471319679178</v>
       </c>
       <c r="D12">
-        <v>10.10290256568552</v>
+        <v>8.148271125051886</v>
       </c>
       <c r="E12">
-        <v>13.77025215224811</v>
+        <v>9.04391332680342</v>
       </c>
       <c r="F12">
-        <v>27.9798734522086</v>
+        <v>18.33350361734928</v>
       </c>
       <c r="G12">
-        <v>26.32423250848062</v>
+        <v>18.45510626942419</v>
       </c>
       <c r="H12">
-        <v>13.69934308323065</v>
+        <v>7.267906242984651</v>
       </c>
       <c r="I12">
-        <v>19.22867791239708</v>
+        <v>12.0404835648625</v>
       </c>
       <c r="J12">
-        <v>9.755575604406515</v>
+        <v>5.18542920452853</v>
       </c>
       <c r="K12">
-        <v>16.67644242093916</v>
+        <v>26.83516065718292</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.9447650805198</v>
+        <v>20.84019890292682</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.52352187432347</v>
+        <v>11.64109666644071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.690759019255138</v>
+        <v>6.95962455284708</v>
       </c>
       <c r="D13">
-        <v>10.10079633648356</v>
+        <v>8.134252799575206</v>
       </c>
       <c r="E13">
-        <v>13.7711868045632</v>
+        <v>9.036445856282624</v>
       </c>
       <c r="F13">
-        <v>27.98537009679412</v>
+        <v>18.31890190522238</v>
       </c>
       <c r="G13">
-        <v>26.33185602031817</v>
+        <v>18.43229202621366</v>
       </c>
       <c r="H13">
-        <v>13.7027732564908</v>
+        <v>7.273128486924565</v>
       </c>
       <c r="I13">
-        <v>19.23295456324655</v>
+        <v>12.03406108406211</v>
       </c>
       <c r="J13">
-        <v>9.757350872932623</v>
+        <v>5.189077079048585</v>
       </c>
       <c r="K13">
-        <v>16.64241454580305</v>
+        <v>26.76716052746431</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.9279109122277</v>
+        <v>20.78611922989493</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.52949845930735</v>
+        <v>11.64282222119511</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.664030493280618</v>
+        <v>6.904414363867366</v>
       </c>
       <c r="D14">
-        <v>10.09395877821577</v>
+        <v>8.088456427114727</v>
       </c>
       <c r="E14">
-        <v>13.7742995171607</v>
+        <v>9.012246007577646</v>
       </c>
       <c r="F14">
-        <v>28.00351047565147</v>
+        <v>18.27208252610765</v>
       </c>
       <c r="G14">
-        <v>26.35702056338542</v>
+        <v>18.35919330722168</v>
       </c>
       <c r="H14">
-        <v>13.71402732016667</v>
+        <v>7.290410651277915</v>
       </c>
       <c r="I14">
-        <v>19.24704222322836</v>
+        <v>12.01368283626175</v>
       </c>
       <c r="J14">
-        <v>9.763172508914824</v>
+        <v>5.201056245692697</v>
       </c>
       <c r="K14">
-        <v>16.53092572414673</v>
+        <v>26.5442593900676</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.8728540181248</v>
+        <v>20.60884067011027</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.54913224383809</v>
+        <v>11.64912164475574</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.647568497090651</v>
+        <v>6.870389584576787</v>
       </c>
       <c r="D15">
-        <v>10.08979473313045</v>
+        <v>8.06034444529597</v>
       </c>
       <c r="E15">
-        <v>13.77625579011336</v>
+        <v>8.997540527363448</v>
       </c>
       <c r="F15">
-        <v>28.01478677713757</v>
+        <v>18.24401639365817</v>
       </c>
       <c r="G15">
-        <v>26.37266675835776</v>
+        <v>18.31541705319066</v>
       </c>
       <c r="H15">
-        <v>13.72097264204662</v>
+        <v>7.301187422612918</v>
       </c>
       <c r="I15">
-        <v>19.25577926235618</v>
+        <v>12.00163353988789</v>
       </c>
       <c r="J15">
-        <v>9.766763101880247</v>
+        <v>5.208456902281154</v>
       </c>
       <c r="K15">
-        <v>16.46223988514427</v>
+        <v>26.40685090290805</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.83906062566082</v>
+        <v>20.49955001757854</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.56126820160241</v>
+        <v>11.65349131033674</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.551864108206641</v>
+        <v>6.672233113975244</v>
       </c>
       <c r="D16">
-        <v>10.06630642678235</v>
+        <v>7.898353166152308</v>
       </c>
       <c r="E16">
-        <v>13.78822734371076</v>
+        <v>8.915068180993439</v>
       </c>
       <c r="F16">
-        <v>28.08192728519702</v>
+        <v>18.09244961414407</v>
       </c>
       <c r="G16">
-        <v>26.4658731134457</v>
+        <v>18.07973362699687</v>
       </c>
       <c r="H16">
-        <v>13.76156857687893</v>
+        <v>7.365784620951096</v>
       </c>
       <c r="I16">
-        <v>19.30749892640901</v>
+        <v>11.93910956186353</v>
       </c>
       <c r="J16">
-        <v>9.787717797083673</v>
+        <v>5.251816047068028</v>
       </c>
       <c r="K16">
-        <v>16.06261540300494</v>
+        <v>25.60597848678183</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.6443848253616</v>
+        <v>19.8624488932168</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.63249319156843</v>
+        <v>11.68614678669822</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.491946386076321</v>
+        <v>6.547836480729353</v>
       </c>
       <c r="D17">
-        <v>10.05223514783111</v>
+        <v>7.798217391173853</v>
       </c>
       <c r="E17">
-        <v>13.79625047392812</v>
+        <v>8.866074344092047</v>
       </c>
       <c r="F17">
-        <v>28.12535916854366</v>
+        <v>18.00761011425358</v>
       </c>
       <c r="G17">
-        <v>26.52619909484341</v>
+        <v>17.94853588147638</v>
       </c>
       <c r="H17">
-        <v>13.78718223105373</v>
+        <v>7.407855467448751</v>
       </c>
       <c r="I17">
-        <v>19.34069717697909</v>
+        <v>11.90645213908803</v>
       </c>
       <c r="J17">
-        <v>9.800910848787396</v>
+        <v>5.279243742780768</v>
       </c>
       <c r="K17">
-        <v>15.81215233809672</v>
+        <v>25.10264977297917</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.52409759454874</v>
+        <v>19.46193426830912</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.67768251692899</v>
+        <v>11.71273694310725</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.457045863574198</v>
+        <v>6.475245052951119</v>
       </c>
       <c r="D18">
-        <v>10.0442675755671</v>
+        <v>7.740358486188952</v>
       </c>
       <c r="E18">
-        <v>13.80111465883382</v>
+        <v>8.838480367965326</v>
       </c>
       <c r="F18">
-        <v>28.15116213931396</v>
+        <v>17.96175097898976</v>
       </c>
       <c r="G18">
-        <v>26.56204719536378</v>
+        <v>17.87792229955715</v>
       </c>
       <c r="H18">
-        <v>13.80217517169607</v>
+        <v>7.432916026470881</v>
       </c>
       <c r="I18">
-        <v>19.36033072407576</v>
+        <v>11.88971217066115</v>
       </c>
       <c r="J18">
-        <v>9.808623494053684</v>
+        <v>5.295316772185385</v>
       </c>
       <c r="K18">
-        <v>15.66616783689462</v>
+        <v>24.80872183713449</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.4546156369954</v>
+        <v>19.22800000602746</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.70422254488533</v>
+        <v>11.73034669017667</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.445154600256931</v>
+        <v>6.450487929387469</v>
       </c>
       <c r="D19">
-        <v>10.04159166013646</v>
+        <v>7.720724762217042</v>
       </c>
       <c r="E19">
-        <v>13.80280443515863</v>
+        <v>8.829237944487296</v>
       </c>
       <c r="F19">
-        <v>28.16003955566267</v>
+        <v>17.94672317110406</v>
       </c>
       <c r="G19">
-        <v>26.57438169421567</v>
+        <v>17.85483880959317</v>
       </c>
       <c r="H19">
-        <v>13.8072962858707</v>
+        <v>7.441546017248776</v>
       </c>
       <c r="I19">
-        <v>19.36707071078524</v>
+        <v>11.88439037600258</v>
       </c>
       <c r="J19">
-        <v>9.811256232846922</v>
+        <v>5.300809252345241</v>
       </c>
       <c r="K19">
-        <v>15.61641197126783</v>
+        <v>24.70844183262222</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.43104135324318</v>
+        <v>19.14817967875048</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.71330261199378</v>
+        <v>11.73669792276957</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.498370139354642</v>
+        <v>6.561186534844399</v>
       </c>
       <c r="D20">
-        <v>10.05372007022967</v>
+        <v>7.808904647137596</v>
       </c>
       <c r="E20">
-        <v>13.79537057566758</v>
+        <v>8.871229123600065</v>
       </c>
       <c r="F20">
-        <v>28.1206506333021</v>
+        <v>18.01633606490086</v>
       </c>
       <c r="G20">
-        <v>26.51965810845949</v>
+        <v>17.96199861641834</v>
       </c>
       <c r="H20">
-        <v>13.7844286372007</v>
+        <v>7.403286913594092</v>
       </c>
       <c r="I20">
-        <v>19.33710737205559</v>
+        <v>11.90971589460449</v>
       </c>
       <c r="J20">
-        <v>9.799493558963098</v>
+        <v>5.276293089803784</v>
       </c>
       <c r="K20">
-        <v>15.83901436343578</v>
+        <v>25.15668791258086</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.53693346141497</v>
+        <v>19.50493879402326</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.67281526157072</v>
+        <v>11.70966458922829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.671900093810169</v>
+        <v>6.920674055021022</v>
       </c>
       <c r="D21">
-        <v>10.09596210997595</v>
+        <v>8.101920590788694</v>
       </c>
       <c r="E21">
-        <v>13.77337489174153</v>
+        <v>9.019329567384911</v>
       </c>
       <c r="F21">
-        <v>27.99814785080874</v>
+        <v>18.28570669224229</v>
       </c>
       <c r="G21">
-        <v>26.34958070532662</v>
+        <v>18.38045573690479</v>
       </c>
       <c r="H21">
-        <v>13.71071091620277</v>
+        <v>7.285294455917938</v>
       </c>
       <c r="I21">
-        <v>19.24288183360519</v>
+        <v>12.01957793171147</v>
       </c>
       <c r="J21">
-        <v>9.761457412204972</v>
+        <v>5.197524486616436</v>
       </c>
       <c r="K21">
-        <v>16.56375527927373</v>
+        <v>26.60991316042133</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.88904014354777</v>
+        <v>20.6610579790519</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.54334245809065</v>
+        <v>11.64716431736867</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.781298796410926</v>
+        <v>7.146356169536973</v>
       </c>
       <c r="D22">
-        <v>10.12465535158808</v>
+        <v>8.290761579334141</v>
       </c>
       <c r="E22">
-        <v>13.7612214545339</v>
+        <v>9.121381146225591</v>
       </c>
       <c r="F22">
-        <v>27.9254548420887</v>
+        <v>18.48901134629552</v>
       </c>
       <c r="G22">
-        <v>26.24880050591438</v>
+        <v>18.69846849451855</v>
       </c>
       <c r="H22">
-        <v>13.66485415498778</v>
+        <v>7.216629564986331</v>
       </c>
       <c r="I22">
-        <v>19.18612741544345</v>
+        <v>12.11062379205789</v>
       </c>
       <c r="J22">
-        <v>9.73770323085393</v>
+        <v>5.148848177910984</v>
       </c>
       <c r="K22">
-        <v>17.01976914907187</v>
+        <v>27.52048474691649</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.11610708860263</v>
+        <v>21.38517218380461</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.46363127756784</v>
+        <v>11.62893793817355</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.723283073529048</v>
+        <v>7.026751787110452</v>
       </c>
       <c r="D23">
-        <v>10.10924363394707</v>
+        <v>8.190231146313494</v>
       </c>
       <c r="E23">
-        <v>13.76750466404989</v>
+        <v>9.066431340827165</v>
       </c>
       <c r="F23">
-        <v>27.96357581715536</v>
+        <v>18.37796148825477</v>
       </c>
       <c r="G23">
-        <v>26.30163308183127</v>
+        <v>18.52461244179809</v>
       </c>
       <c r="H23">
-        <v>13.68911624901443</v>
+        <v>7.252464943491403</v>
       </c>
       <c r="I23">
-        <v>19.2159751874482</v>
+        <v>12.06022195728177</v>
       </c>
       <c r="J23">
-        <v>9.75028033806444</v>
+        <v>5.174563059816426</v>
       </c>
       <c r="K23">
-        <v>16.77802261658014</v>
+        <v>27.03806938548916</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.99521647618406</v>
+        <v>21.00156334075948</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.50572448411368</v>
+        <v>11.63649892968164</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.495467370212287</v>
+        <v>6.555154321170669</v>
       </c>
       <c r="D24">
-        <v>10.05304835581891</v>
+        <v>7.804073836808495</v>
       </c>
       <c r="E24">
-        <v>13.79576759403113</v>
+        <v>8.86889686278522</v>
       </c>
       <c r="F24">
-        <v>28.12277676663383</v>
+        <v>18.01238199190338</v>
       </c>
       <c r="G24">
-        <v>26.5226116582064</v>
+        <v>17.95589713704201</v>
       </c>
       <c r="H24">
-        <v>13.78567270432811</v>
+        <v>7.405349644407547</v>
       </c>
       <c r="I24">
-        <v>19.33872861797373</v>
+        <v>11.90823402342713</v>
       </c>
       <c r="J24">
-        <v>9.800133917620984</v>
+        <v>5.27762613328089</v>
       </c>
       <c r="K24">
-        <v>15.82687623408976</v>
+        <v>25.13227146766879</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.53113138049264</v>
+        <v>19.48550789198973</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.67501400334383</v>
+        <v>11.71104638784507</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.233103060062366</v>
+        <v>6.00665523413798</v>
       </c>
       <c r="D25">
-        <v>9.997262680743086</v>
+        <v>7.37771894999822</v>
       </c>
       <c r="E25">
-        <v>13.8357910805628</v>
+        <v>8.678183806130003</v>
       </c>
       <c r="F25">
-        <v>28.32590049560651</v>
+        <v>17.72952122217955</v>
       </c>
       <c r="G25">
-        <v>26.8048660101242</v>
+        <v>17.52630690508499</v>
       </c>
       <c r="H25">
-        <v>13.89978934824318</v>
+        <v>7.602870938192363</v>
       </c>
       <c r="I25">
-        <v>19.49171927509168</v>
+        <v>11.82168951207739</v>
       </c>
       <c r="J25">
-        <v>9.858665067304919</v>
+        <v>5.400095094448882</v>
       </c>
       <c r="K25">
-        <v>14.72776050922688</v>
+        <v>22.90728345210099</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.01950163286428</v>
+        <v>17.71361573650841</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.8785704997411</v>
+        <v>11.87884768306244</v>
       </c>
     </row>
   </sheetData>
